--- a/biology/Botanique/Tuyau_d'arrosage/Tuyau_d'arrosage.xlsx
+++ b/biology/Botanique/Tuyau_d'arrosage/Tuyau_d'arrosage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tuyau_d%27arrosage</t>
+          <t>Tuyau_d'arrosage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tuyau d'arrosage, également appelé boyau d'arrosage ou hose au Québec, est un type de tuyau souple. Une de ses extrémités est connectée à un robinet, permettant de l'alimenter en eau, tandis que l'autre peut être connectée à un accessoire d'arrosage. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tuyau_d%27arrosage</t>
+          <t>Tuyau_d'arrosage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement de couleur verte ou noire, le tuyau d'arrosage est conçu en caoutchouc synthétique ou en plastique souple comme le vinyle, souvent renforcé par une armature de fibres. Sa flexibilité est une caractéristique importante, car les usages du tuyau d'arrosage impliquent souvent de contourner des obstacles. Il doit aussi résister à l'emmêlement et à l’écrasement. À chaque extrémité du tuyau, on retrouve un raccord vissable, souvent fabriqué en laiton. Le boyau peut également être micro perforé sur toute sa longueur pour laisser évacuer l'eau tranquillement sur toute la longueur du tuyau.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tuyau_d%27arrosage</t>
+          <t>Tuyau_d'arrosage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart du temps, le tuyau d'arrosage sert à un usage extérieur et temporaire. Il peut être utilisé en jardinage pour l'arrosage des plantes ou de la pelouse. Il sert également au nettoyage extérieur, comme le nettoyage d'un véhicule ou du revêtement et des fenêtres d'un bâtiment. Il peut aussi permettre le raccordement en eau potable d'un véhicule récréatif.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tuyau_d%27arrosage</t>
+          <t>Tuyau_d'arrosage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Accessoires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreux accessoires reliés au tuyau d'arrosage.
 À l'extrémité d'où sort l'eau du tuyau, il est possible de connecter :
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tuyau_d%27arrosage</t>
+          <t>Tuyau_d'arrosage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tuyau d'arrosage est un accessoire essentiel dans le film des Frères Lumière L'Arroseur arrosé (1895).
  Portail de l’eau   Portail du jardinage et de l’horticulture                    </t>
